--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_2_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_2_39.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22445.61410523156</v>
+        <v>1346736.846313893</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22445.61410523156</v>
+        <v>1346736.846313893</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188189118.954853</v>
+        <v>46931676.2583441</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10573.03793806434</v>
+        <v>1009992.719946366</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20949.74066512195</v>
+        <v>1986009.926204126</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31326.44339217955</v>
+        <v>2962027.132461888</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42785.37645066836</v>
+        <v>3879403.885817369</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54244.30950915712</v>
+        <v>4796780.639172849</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64941.87317519644</v>
+        <v>5750915.943782735</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75639.43684123576</v>
+        <v>6705051.248392618</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86337.00050727506</v>
+        <v>7659186.553002501</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97795.93356576387</v>
+        <v>8576563.306357976</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>109254.8666242527</v>
+        <v>9493940.059713451</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>119746.186001354</v>
+        <v>10469957.26597121</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130237.5053784553</v>
+        <v>11445974.47222898</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140728.8247555567</v>
+        <v>12421991.67848675</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>152187.7578140455</v>
+        <v>13339368.43184223</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163646.6908725343</v>
+        <v>14256745.18519772</v>
       </c>
     </row>
   </sheetData>
